--- a/accordion-rental/backend/users.xlsx
+++ b/accordion-rental/backend/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/cs50/166232074/project2/accordion-rental/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4A540-2BB6-984A-820D-391DF679B057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FA9B3-B5C9-0B4C-AD9E-325DFC2FE17E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36840" yWindow="-11620" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="459">
   <si>
     <t>userId</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>brit@petersonid.ee</t>
   </si>
   <si>
-    <t>email.email.ee</t>
-  </si>
-  <si>
     <t>+3720000000</t>
   </si>
   <si>
@@ -1399,6 +1396,9 @@
   </si>
   <si>
     <t>+37256943083</t>
+  </si>
+  <si>
+    <t>lelek78@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1478,6 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1783,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1869,7 @@
         <v>411</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1959,7 +1960,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
@@ -2041,7 +2042,7 @@
         <v>411</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
@@ -2079,7 +2080,7 @@
         <v>411</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L7" t="s">
         <v>53</v>
@@ -2126,7 +2127,7 @@
         <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -2170,7 +2171,7 @@
         <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -2211,7 +2212,7 @@
         <v>111</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -2255,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L11" t="s">
         <v>83</v>
@@ -2302,7 +2303,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L12" t="s">
         <v>90</v>
@@ -2346,7 +2347,7 @@
         <v>96</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L13" t="s">
         <v>97</v>
@@ -2390,7 +2391,7 @@
         <v>103</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L14" t="s">
         <v>104</v>
@@ -2434,7 +2435,7 @@
         <v>109</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L15" t="s">
         <v>110</v>
@@ -2481,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L16" t="s">
         <v>116</v>
@@ -2528,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L17" t="s">
         <v>122</v>
@@ -2572,7 +2573,7 @@
         <v>103</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L18" t="s">
         <v>128</v>
@@ -2619,7 +2620,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L19" t="s">
         <v>134</v>
@@ -2666,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L20" t="s">
         <v>140</v>
@@ -2710,7 +2711,7 @@
         <v>411</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L21" t="s">
         <v>144</v>
@@ -2754,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L22" t="s">
         <v>148</v>
@@ -2801,7 +2802,7 @@
         <v>65</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L23" t="s">
         <v>155</v>
@@ -2845,7 +2846,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L24" t="s">
         <v>161</v>
@@ -2930,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L26" t="s">
         <v>173</v>
@@ -2974,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L27" t="s">
         <v>179</v>
@@ -3018,7 +3019,7 @@
         <v>411</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L28" t="s">
         <v>188</v>
@@ -3109,7 +3110,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L30" t="s">
         <v>201</v>
@@ -3150,7 +3151,7 @@
         <v>206</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L31" t="s">
         <v>207</v>
@@ -3194,7 +3195,7 @@
         <v>211</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L32" t="s">
         <v>212</v>
@@ -3241,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L33" t="s">
         <v>217</v>
@@ -3285,7 +3286,7 @@
         <v>226</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L34" t="s">
         <v>227</v>
@@ -3329,7 +3330,7 @@
         <v>411</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L35" t="s">
         <v>231</v>
@@ -3508,7 +3509,7 @@
         <v>411</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L39" t="s">
         <v>264</v>
@@ -3552,7 +3553,7 @@
         <v>103</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L40" t="s">
         <v>269</v>
@@ -3599,7 +3600,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L41" t="s">
         <v>275</v>
@@ -3643,7 +3644,7 @@
         <v>411</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L42" t="s">
         <v>278</v>
@@ -3731,7 +3732,7 @@
         <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L44" t="s">
         <v>289</v>
@@ -3863,7 +3864,7 @@
         <v>308</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L47" t="s">
         <v>309</v>
@@ -3951,7 +3952,7 @@
         <v>320</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s">
         <v>321</v>
@@ -3995,7 +3996,7 @@
         <v>308</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s">
         <v>327</v>
@@ -4362,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s">
         <v>381</v>
@@ -4409,7 +4410,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s">
         <v>388</v>
@@ -4456,7 +4457,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s">
         <v>395</v>
@@ -4550,10 +4551,16 @@
         <v>16</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="L62" t="s">
         <v>416</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="M62" t="s">
+        <v>169</v>
+      </c>
+      <c r="N62" t="s">
+        <v>270</v>
       </c>
       <c r="O62" t="s">
         <v>17</v>
@@ -4654,6 +4661,7 @@
   <hyperlinks>
     <hyperlink ref="L63" r:id="rId1" xr:uid="{C134ED45-99B0-4748-9D7B-6BC28AE92B0B}"/>
     <hyperlink ref="L64" r:id="rId2" xr:uid="{45E0EAD7-3935-2446-BA6A-D6AAC4783EC0}"/>
+    <hyperlink ref="L62" r:id="rId3" xr:uid="{5DD4F35E-8469-AA41-97B4-C03E4AD62689}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/accordion-rental/backend/users.xlsx
+++ b/accordion-rental/backend/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/cs50/166232074/project2/accordion-rental/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FA9B3-B5C9-0B4C-AD9E-325DFC2FE17E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB337CC-1095-A442-A6EA-D6CEFA7EECFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36840" yWindow="-11620" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="460">
   <si>
     <t>userId</t>
   </si>
@@ -1253,9 +1253,6 @@
     <t>tn</t>
   </si>
   <si>
-    <t>Saue</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -1399,6 +1396,12 @@
   </si>
   <si>
     <t>lelek78@mail.ru</t>
+  </si>
+  <si>
+    <t>Kivipõllu</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1788,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,13 +1866,13 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1960,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
@@ -1998,10 +2001,10 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -2036,13 +2039,13 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
@@ -2074,13 +2077,13 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L7" t="s">
         <v>53</v>
@@ -2127,7 +2130,7 @@
         <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -2171,7 +2174,7 @@
         <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -2212,7 +2215,7 @@
         <v>111</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -2256,7 +2259,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L11" t="s">
         <v>83</v>
@@ -2303,7 +2306,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L12" t="s">
         <v>90</v>
@@ -2347,7 +2350,7 @@
         <v>96</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L13" t="s">
         <v>97</v>
@@ -2391,7 +2394,7 @@
         <v>103</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L14" t="s">
         <v>104</v>
@@ -2435,7 +2438,7 @@
         <v>109</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L15" t="s">
         <v>110</v>
@@ -2482,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L16" t="s">
         <v>116</v>
@@ -2529,7 +2532,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L17" t="s">
         <v>122</v>
@@ -2573,7 +2576,7 @@
         <v>103</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L18" t="s">
         <v>128</v>
@@ -2620,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L19" t="s">
         <v>134</v>
@@ -2667,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L20" t="s">
         <v>140</v>
@@ -2705,13 +2708,13 @@
         <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L21" t="s">
         <v>144</v>
@@ -2755,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L22" t="s">
         <v>148</v>
@@ -2802,7 +2805,7 @@
         <v>65</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L23" t="s">
         <v>155</v>
@@ -2846,7 +2849,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L24" t="s">
         <v>161</v>
@@ -2931,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L26" t="s">
         <v>173</v>
@@ -2975,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L27" t="s">
         <v>179</v>
@@ -3016,10 +3019,10 @@
         <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L28" t="s">
         <v>188</v>
@@ -3110,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L30" t="s">
         <v>201</v>
@@ -3151,7 +3154,7 @@
         <v>206</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L31" t="s">
         <v>207</v>
@@ -3195,7 +3198,7 @@
         <v>211</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L32" t="s">
         <v>212</v>
@@ -3242,7 +3245,7 @@
         <v>13</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L33" t="s">
         <v>217</v>
@@ -3286,7 +3289,7 @@
         <v>226</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L34" t="s">
         <v>227</v>
@@ -3327,10 +3330,10 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L35" t="s">
         <v>231</v>
@@ -3462,7 +3465,7 @@
         <v>255</v>
       </c>
       <c r="I38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>256</v>
@@ -3506,10 +3509,10 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L39" t="s">
         <v>264</v>
@@ -3553,7 +3556,7 @@
         <v>103</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L40" t="s">
         <v>269</v>
@@ -3600,7 +3603,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L41" t="s">
         <v>275</v>
@@ -3638,13 +3641,13 @@
         <v>263</v>
       </c>
       <c r="H42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L42" t="s">
         <v>278</v>
@@ -3732,7 +3735,7 @@
         <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L44" t="s">
         <v>289</v>
@@ -3864,7 +3867,7 @@
         <v>308</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
         <v>309</v>
@@ -3905,7 +3908,7 @@
         <v>314</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>315</v>
@@ -3952,7 +3955,7 @@
         <v>320</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L49" t="s">
         <v>321</v>
@@ -3996,7 +3999,7 @@
         <v>308</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s">
         <v>327</v>
@@ -4363,7 +4366,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s">
         <v>381</v>
@@ -4410,7 +4413,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L59" t="s">
         <v>388</v>
@@ -4457,7 +4460,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
         <v>395</v>
@@ -4551,10 +4554,10 @@
         <v>16</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M62" t="s">
         <v>169</v>
@@ -4589,16 +4592,16 @@
         <v>300</v>
       </c>
       <c r="H63" t="s">
-        <v>410</v>
-      </c>
-      <c r="I63" t="s">
+        <v>458</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>162</v>
@@ -4642,10 +4645,10 @@
         <v>82</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>162</v>
